--- a/Wi-UI.xlsx
+++ b/Wi-UI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\NodeJs\TreeScan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="330">
   <si>
     <t>Code</t>
   </si>
@@ -49,51 +49,15 @@
     <t>WellTab</t>
   </si>
   <si>
-    <t>DatabasesToolbar</t>
-  </si>
-  <si>
-    <t>ViewToolbar</t>
-  </si>
-  <si>
-    <t>ExitToolbar</t>
-  </si>
-  <si>
-    <t>WellsToolbar</t>
-  </si>
-  <si>
-    <t>Input/OutputToolbar</t>
-  </si>
-  <si>
     <t>DataAnalysisTab</t>
   </si>
   <si>
-    <t>LogPlotToolbar</t>
-  </si>
-  <si>
-    <t>CrossPlotToolbar</t>
-  </si>
-  <si>
-    <t>HistogramToolbar</t>
-  </si>
-  <si>
-    <t>CurveToolbar</t>
-  </si>
-  <si>
     <t>DataProcessingTab</t>
   </si>
   <si>
-    <t>UserFormulaToolbar</t>
-  </si>
-  <si>
     <t>PetrophysicsTab</t>
   </si>
   <si>
-    <t>Basement/Tight SandstoneToolbar</t>
-  </si>
-  <si>
-    <t>ClasticToolbar</t>
-  </si>
-  <si>
     <t>1.5.1</t>
   </si>
   <si>
@@ -127,273 +91,12 @@
     <t>HelpTab</t>
   </si>
   <si>
-    <t>HelpButton</t>
-  </si>
-  <si>
-    <t>AboutButton</t>
-  </si>
-  <si>
     <t>wiButton</t>
   </si>
   <si>
-    <t>NewProjectButton</t>
-  </si>
-  <si>
-    <t>OpenProjectButton</t>
-  </si>
-  <si>
-    <t>CloseProjectButton</t>
-  </si>
-  <si>
-    <t>UnitSettingsButton</t>
-  </si>
-  <si>
-    <t>ProjectButton</t>
-  </si>
-  <si>
-    <t>WorkflowButton</t>
-  </si>
-  <si>
-    <t>PropertyGridButton</t>
-  </si>
-  <si>
-    <t>AddNewButton</t>
-  </si>
-  <si>
-    <t>WellHeaderButton</t>
-  </si>
-  <si>
-    <t>DepthConversionButton</t>
-  </si>
-  <si>
-    <t>CurveAliasButton</t>
-  </si>
-  <si>
-    <t>FamilyEditButton</t>
-  </si>
-  <si>
-    <t>SaveProjectButton</t>
-  </si>
-  <si>
-    <t>SaveProjectAsButton</t>
-  </si>
-  <si>
-    <t>ImportASCIIButton</t>
-  </si>
-  <si>
-    <t>ImportMultiASCIIButton</t>
-  </si>
-  <si>
-    <t>ImportLASButton</t>
-  </si>
-  <si>
-    <t>ImportMultiLASButton</t>
-  </si>
-  <si>
-    <t>Interval/CoreLoaderButton</t>
-  </si>
-  <si>
-    <t>Multi-wellCoreLoaderButton</t>
-  </si>
-  <si>
-    <t>ImportWellHeaderButton</t>
-  </si>
-  <si>
-    <t>ImportWellTopButton</t>
-  </si>
-  <si>
-    <t>ExportASCIIButton</t>
-  </si>
-  <si>
-    <t>ExportMultiASCIIButton</t>
-  </si>
-  <si>
-    <t>ExportLASButton</t>
-  </si>
-  <si>
-    <t>ExportMultiLASButton</t>
-  </si>
-  <si>
-    <t>ExportWellHeaderButton</t>
-  </si>
-  <si>
-    <t>ExportWellTopButton</t>
-  </si>
-  <si>
-    <t>ExportCoreDataButton</t>
-  </si>
-  <si>
-    <t>BlankLogplotButton</t>
-  </si>
-  <si>
-    <t>TrippleComboButton</t>
-  </si>
-  <si>
-    <t>DensityNeutronButton</t>
-  </si>
-  <si>
-    <t>ResistivitySonicButton</t>
-  </si>
-  <si>
-    <t>InputCurveButton</t>
-  </si>
-  <si>
-    <t>ResultButton</t>
-  </si>
-  <si>
-    <t>BlankCrossPlotButton</t>
-  </si>
-  <si>
-    <t>SonicPHI_TOTALButton</t>
-  </si>
-  <si>
-    <t>NeutronDensityButton</t>
-  </si>
-  <si>
-    <t>NeutronGammaButton</t>
-  </si>
-  <si>
-    <t>SonicGammaButton</t>
-  </si>
-  <si>
-    <t>NeuTronSonicButton</t>
-  </si>
-  <si>
-    <t>DenityGammaButton</t>
-  </si>
-  <si>
-    <t>NeuTronRtButton</t>
-  </si>
-  <si>
-    <t>DensitySonicButton</t>
-  </si>
-  <si>
-    <t>DensityRtButton</t>
-  </si>
-  <si>
-    <t>SonicDensityButton</t>
-  </si>
-  <si>
-    <t>SonicRtButton</t>
-  </si>
-  <si>
-    <t>RtRx0Button</t>
-  </si>
-  <si>
-    <t>PickettButton</t>
-  </si>
-  <si>
-    <t>BlankHistogramButton</t>
-  </si>
-  <si>
-    <t>PHI_TOTALButton</t>
-  </si>
-  <si>
-    <t>GammaRayButton</t>
-  </si>
-  <si>
-    <t>NeutronButton</t>
-  </si>
-  <si>
-    <t>DensityButton</t>
-  </si>
-  <si>
-    <t>SonicButton</t>
-  </si>
-  <si>
-    <t>SallowResistivityButton</t>
-  </si>
-  <si>
-    <t>DeepResistivityButton</t>
-  </si>
-  <si>
-    <t>MSFLHistogramButton</t>
-  </si>
-  <si>
     <t>1.10</t>
   </si>
   <si>
-    <t>AddCurveButton</t>
-  </si>
-  <si>
-    <t>EditTextCurveButton</t>
-  </si>
-  <si>
-    <t>EditCurveDdButton</t>
-  </si>
-  <si>
-    <t>CurveListing/EditButton</t>
-  </si>
-  <si>
-    <t>InteractiveCurveEditButton</t>
-  </si>
-  <si>
-    <t>InteractiveBaselineShiftButton</t>
-  </si>
-  <si>
-    <t>SplitCurveDdButton</t>
-  </si>
-  <si>
-    <t>SplitCurvesButton</t>
-  </si>
-  <si>
-    <t>InteractiveCurveSplitButton</t>
-  </si>
-  <si>
-    <t>MergeCurvesButton</t>
-  </si>
-  <si>
-    <t>CurvesHeaderButton</t>
-  </si>
-  <si>
-    <t>FillDataGapsButton</t>
-  </si>
-  <si>
-    <t>CurveFilterButton</t>
-  </si>
-  <si>
-    <t>CurveConvolutionButton</t>
-  </si>
-  <si>
-    <t>CurveDeconvolutionButton</t>
-  </si>
-  <si>
-    <t>CurveRescaleButton</t>
-  </si>
-  <si>
-    <t>CurveComrarisonButton</t>
-  </si>
-  <si>
-    <t>CurveAverageButton</t>
-  </si>
-  <si>
-    <t>FormationResistivityButton</t>
-  </si>
-  <si>
-    <t>Badhole/Coal/SaltButton</t>
-  </si>
-  <si>
-    <t>UserFormulaButton</t>
-  </si>
-  <si>
-    <t>UserProgramButton</t>
-  </si>
-  <si>
-    <t>PythonProgramButton</t>
-  </si>
-  <si>
-    <t>TVDConversionButton</t>
-  </si>
-  <si>
-    <t>PCAAnalysisButton</t>
-  </si>
-  <si>
-    <t>Multi-LinearRegressionButton</t>
-  </si>
-  <si>
-    <t>NeuralNetworkButton</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -448,18 +151,6 @@
     <t>1.17</t>
   </si>
   <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -481,51 +172,9 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>EditZonesButton</t>
-  </si>
-  <si>
-    <t>InputCurvesButton</t>
-  </si>
-  <si>
-    <t>BuildMineralParametersButton</t>
-  </si>
-  <si>
-    <t>InputMineralZonesButton</t>
-  </si>
-  <si>
-    <t>Multi-MineralSolverButton</t>
-  </si>
-  <si>
-    <t>SecondaryPorosityButton</t>
-  </si>
-  <si>
-    <t>FracturePorosityButton</t>
-  </si>
-  <si>
-    <t>Micro&amp;MacroPorosityButton</t>
-  </si>
-  <si>
-    <t>PermeabilityButton</t>
-  </si>
-  <si>
-    <t>CutoffandSummationButton</t>
-  </si>
-  <si>
-    <t>BasicAnalysisButton</t>
-  </si>
-  <si>
-    <t>ClayVolumeButton</t>
-  </si>
-  <si>
-    <t>Porosity&amp;WaterSaturationButton</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>TriTracksBlankButton</t>
-  </si>
-  <si>
     <t>wiToolbar</t>
   </si>
   <si>
@@ -538,30 +187,12 @@
     <t>icon</t>
   </si>
   <si>
-    <t>ImportDropdown</t>
-  </si>
-  <si>
-    <t>ExportDropdown</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
     <t>2.1.1</t>
   </si>
   <si>
-    <t>UnlockButton</t>
-  </si>
-  <si>
-    <t>LithoSynCurveButton</t>
-  </si>
-  <si>
-    <t>SynCurveButton</t>
-  </si>
-  <si>
-    <t>HelpToolbar</t>
-  </si>
-  <si>
     <t>2.1.3</t>
   </si>
   <si>
@@ -655,15 +286,6 @@
     <t>wiStatus</t>
   </si>
   <si>
-    <t>CrossMoreDropdown</t>
-  </si>
-  <si>
-    <t>HistogramMoreDropdown</t>
-  </si>
-  <si>
-    <t>LogMoreDropdown</t>
-  </si>
-  <si>
     <t>wiBlock</t>
   </si>
   <si>
@@ -712,21 +334,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>SaveProjectDropdown</t>
-  </si>
-  <si>
-    <t>ExitButton</t>
-  </si>
-  <si>
-    <t>WaterSaturationButton</t>
-  </si>
-  <si>
-    <t>InputFuidButton</t>
-  </si>
-  <si>
-    <t>CurveDerivativeButton</t>
-  </si>
-  <si>
     <t>ProjectTreeview</t>
   </si>
   <si>
@@ -937,9 +544,6 @@
     <t>user_formula_multiline_32x32</t>
   </si>
   <si>
-    <t>CalculationToolbar</t>
-  </si>
-  <si>
     <t>true_vertical_depth_32x32</t>
   </si>
   <si>
@@ -961,18 +565,9 @@
     <t>Vclay_32x32</t>
   </si>
   <si>
-    <t>ClayMineralsVolumeButton</t>
-  </si>
-  <si>
-    <t>FractureVugPorosityButton</t>
-  </si>
-  <si>
     <t>secondary_porosity_32x32</t>
   </si>
   <si>
-    <t>OpenPorosityButton</t>
-  </si>
-  <si>
     <t>calculate_open_porosity_32x32</t>
   </si>
   <si>
@@ -997,18 +592,12 @@
     <t>mineral_volume_32x32</t>
   </si>
   <si>
-    <t>FilteringFractureButton</t>
-  </si>
-  <si>
     <t>phi2fil_phio_32x32</t>
   </si>
   <si>
     <t>fracture_porosity_permeability_32x32</t>
   </si>
   <si>
-    <t>FilteringButton</t>
-  </si>
-  <si>
     <t>curve_filter_32x32</t>
   </si>
   <si>
@@ -1031,6 +620,405 @@
   </si>
   <si>
     <t>logplot_predefine_RDT_16x16</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>New Project</t>
+  </si>
+  <si>
+    <t>Open Project</t>
+  </si>
+  <si>
+    <t>Close Project</t>
+  </si>
+  <si>
+    <t>Unit Settings</t>
+  </si>
+  <si>
+    <t>Save Project</t>
+  </si>
+  <si>
+    <t>Save Project As</t>
+  </si>
+  <si>
+    <t>Property Grid</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>Input/Output</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Add New</t>
+  </si>
+  <si>
+    <t>Well Header</t>
+  </si>
+  <si>
+    <t>Depth Conversion</t>
+  </si>
+  <si>
+    <t>Curve Alias</t>
+  </si>
+  <si>
+    <t>Family Edit</t>
+  </si>
+  <si>
+    <t>Import ASCII</t>
+  </si>
+  <si>
+    <t>Import Multi ASCII</t>
+  </si>
+  <si>
+    <t>Import LAS</t>
+  </si>
+  <si>
+    <t>Import Multi LAS</t>
+  </si>
+  <si>
+    <t>Interval/Core Loader</t>
+  </si>
+  <si>
+    <t>Multi-well Core Loader</t>
+  </si>
+  <si>
+    <t>Import Well Header</t>
+  </si>
+  <si>
+    <t>Import Well Top</t>
+  </si>
+  <si>
+    <t>Export ASCII</t>
+  </si>
+  <si>
+    <t>Export Multi ASCII</t>
+  </si>
+  <si>
+    <t>Export LAS</t>
+  </si>
+  <si>
+    <t>Export Multi LAS</t>
+  </si>
+  <si>
+    <t>Export Core Data</t>
+  </si>
+  <si>
+    <t>Export Well Header</t>
+  </si>
+  <si>
+    <t>Export Well Top</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>RtRx0</t>
+  </si>
+  <si>
+    <t>Pickett</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>PHI_TOTAL</t>
+  </si>
+  <si>
+    <t>Neutron</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>Log Plot</t>
+  </si>
+  <si>
+    <t>Blank Log plot</t>
+  </si>
+  <si>
+    <t>Tripple Combo</t>
+  </si>
+  <si>
+    <t>Density Neutron</t>
+  </si>
+  <si>
+    <t>Resistivity Sonic</t>
+  </si>
+  <si>
+    <t>Log More</t>
+  </si>
+  <si>
+    <t>Input Curve</t>
+  </si>
+  <si>
+    <t>3 Tracks Blank</t>
+  </si>
+  <si>
+    <t>Litho + Syn.Curve</t>
+  </si>
+  <si>
+    <t>Syn.Curve</t>
+  </si>
+  <si>
+    <t>Cross Plot</t>
+  </si>
+  <si>
+    <t>Blank Cross Plot</t>
+  </si>
+  <si>
+    <t>Sonic PHI_TOTAL</t>
+  </si>
+  <si>
+    <t>Neutron Density</t>
+  </si>
+  <si>
+    <t>Neutron Gamma</t>
+  </si>
+  <si>
+    <t>Sonic Gamma</t>
+  </si>
+  <si>
+    <t>Cross More</t>
+  </si>
+  <si>
+    <t>NeuTron Sonic</t>
+  </si>
+  <si>
+    <t>Denity Gamma</t>
+  </si>
+  <si>
+    <t>NeuTron Rt</t>
+  </si>
+  <si>
+    <t>Density Sonic</t>
+  </si>
+  <si>
+    <t>Density Rt</t>
+  </si>
+  <si>
+    <t>Sonic Density</t>
+  </si>
+  <si>
+    <t>Sonic Rt</t>
+  </si>
+  <si>
+    <t>Blank Histogram</t>
+  </si>
+  <si>
+    <t>Gamma Ray</t>
+  </si>
+  <si>
+    <t>Histogram More</t>
+  </si>
+  <si>
+    <t>Sallow Resistivity</t>
+  </si>
+  <si>
+    <t>Deep Resistivity</t>
+  </si>
+  <si>
+    <t>MSFL Histogram</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>Badhole/Coal/Salt</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Add Curve</t>
+  </si>
+  <si>
+    <t>Edit Text Curve</t>
+  </si>
+  <si>
+    <t>Edit Curve</t>
+  </si>
+  <si>
+    <t>Curve Listing/Edit</t>
+  </si>
+  <si>
+    <t>Interactive Curve Edit</t>
+  </si>
+  <si>
+    <t>Interactive Baseline Shift</t>
+  </si>
+  <si>
+    <t>Split Curve</t>
+  </si>
+  <si>
+    <t>Split Curves</t>
+  </si>
+  <si>
+    <t>Interactive Curve Split</t>
+  </si>
+  <si>
+    <t>Merge Curves</t>
+  </si>
+  <si>
+    <t>Curves Header</t>
+  </si>
+  <si>
+    <t>Fill Data Gaps</t>
+  </si>
+  <si>
+    <t>Curve Filter</t>
+  </si>
+  <si>
+    <t>Curve Convolution</t>
+  </si>
+  <si>
+    <t>Curve Deconvolution</t>
+  </si>
+  <si>
+    <t>Curve Derivative</t>
+  </si>
+  <si>
+    <t>Curve Rescale</t>
+  </si>
+  <si>
+    <t>Curve Comrarison</t>
+  </si>
+  <si>
+    <t>Curve Average</t>
+  </si>
+  <si>
+    <t>Formation Resistivity</t>
+  </si>
+  <si>
+    <t>User Formula</t>
+  </si>
+  <si>
+    <t>User Program</t>
+  </si>
+  <si>
+    <t>Python Program</t>
+  </si>
+  <si>
+    <t>TVD Conversion</t>
+  </si>
+  <si>
+    <t>PCA Analysis</t>
+  </si>
+  <si>
+    <t>Multi-Linear Regression</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Basement/Tight Sandstone</t>
+  </si>
+  <si>
+    <t>SecondaryPorosity</t>
+  </si>
+  <si>
+    <t>Permeability</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Clastic</t>
+  </si>
+  <si>
+    <t>Edit Zones</t>
+  </si>
+  <si>
+    <t>Input Curves</t>
+  </si>
+  <si>
+    <t>Input Fuid</t>
+  </si>
+  <si>
+    <t>Build Mineral Parameters</t>
+  </si>
+  <si>
+    <t>Input Mineral Zones</t>
+  </si>
+  <si>
+    <t>Multi-Mineral Solver</t>
+  </si>
+  <si>
+    <t>Clay Minerals Volume</t>
+  </si>
+  <si>
+    <t>Fracture-Vug Porosity</t>
+  </si>
+  <si>
+    <t>Open Porosity</t>
+  </si>
+  <si>
+    <t>Fracture Porosity</t>
+  </si>
+  <si>
+    <t>Filtering Fracture</t>
+  </si>
+  <si>
+    <t>Micro &amp; Macro Porosity</t>
+  </si>
+  <si>
+    <t>Water Saturation</t>
+  </si>
+  <si>
+    <t>Cutoff and Summation</t>
+  </si>
+  <si>
+    <t>Basic Analysis</t>
+  </si>
+  <si>
+    <t>Clay Volume</t>
+  </si>
+  <si>
+    <t>Porosity &amp; Water Saturation</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>Workflows</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,10 +1466,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1522,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1536,13 +1524,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D2" s="10"/>
       <c r="H2" t="str">
@@ -1559,10 +1547,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="D3" t="str">
         <f>REPLACE(B3, FIND(H3,B3),I3,"")</f>
@@ -1582,10 +1570,10 @@
         <v>1.2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="D4" t="str">
         <f>REPLACE(B4, FIND(H4,B4),I4,"")</f>
@@ -1605,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D5" s="10"/>
       <c r="H5" t="str">
@@ -1625,10 +1613,10 @@
         <v>2.1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="D6" s="13" t="str">
         <f>REPLACE(B6, FIND(H6,B6),I6,"")</f>
@@ -1651,10 +1639,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="D7" t="str">
         <f>REPLACE(B7, FIND(H7,B7),I7,"")</f>
@@ -1674,10 +1662,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="D8" t="str">
         <f>REPLACE(B8, FIND(H8,B8),I8,"")</f>
@@ -1697,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="D9" s="10" t="str">
         <f>REPLACE(B9, FIND(H9,B9),I9,"")</f>
@@ -1765,13 +1753,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -1783,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,10 +1790,10 @@
         <v>1.3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,10 +1801,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,10 +1812,10 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,10 +1823,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1859,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,13 +1875,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1903,15 +1891,15 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
+      <c r="B2" s="10" t="str">
+        <f>SUBSTITUTE(CONCATENATE(D2,H2)," ","")</f>
+        <v>DatabasesToolbar</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>REPLACE(B2, FIND(H2,B2),I2,"")</f>
-        <v>Databases</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="E2" s="10"/>
       <c r="H2" t="str">
@@ -1928,15 +1916,15 @@
       <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
+      <c r="B3" s="7" t="str">
+        <f t="shared" ref="B3:B15" si="0">SUBSTITUTE(CONCATENATE(D3,H3)," ","")</f>
+        <v>NewProjectButton</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">REPLACE(B3, FIND(H3,B3),I3,"")</f>
-        <v>NewProject</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(J3,"_","-")</f>
@@ -1951,22 +1939,22 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>OpenProjectButton</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>OpenProject</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F15" si="3">SUBSTITUTE(J4,"_","-")</f>
@@ -1981,22 +1969,22 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CloseProjectButton</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>CloseProject</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -2011,22 +1999,22 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>UnitSettingsButton</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitSettings</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -2041,22 +2029,22 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>227</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>SaveProjectDropdown</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>SaveProject</v>
+        <v>99</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" t="str">
@@ -2072,22 +2060,22 @@
         <v>8</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SaveProjectButton</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>SaveProject</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -2102,22 +2090,22 @@
         <v>6</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>267</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SaveProjectAsButton</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>SaveProjectAs</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>205</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
@@ -2132,22 +2120,22 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
+      <c r="B10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ViewToolbar</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>View</v>
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="E10" s="10"/>
       <c r="H10" t="str">
@@ -2164,15 +2152,15 @@
       <c r="A11" s="3">
         <v>2.1</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>ProjectButton</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>Project</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -2187,22 +2175,22 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>WorkflowsButton</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>Workflow</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -2217,22 +2205,22 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>PropertyGridButton</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>PropertyGrid</v>
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
@@ -2247,22 +2235,22 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>ExitToolbar</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Exit</v>
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -2281,15 +2269,15 @@
       <c r="A15" s="3">
         <v>3.1</v>
       </c>
-      <c r="B15" t="s">
-        <v>228</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>ExitButton</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Exit</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -2304,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2316,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,13 +2327,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2353,17 +2341,17 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f t="shared" ref="B2:B26" si="0">SUBSTITUTE(CONCATENATE(D2,H2)," ","")</f>
+        <v>WellsToolbar</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f t="shared" ref="D2:D26" si="0">REPLACE(B2, FIND(H2,B2),I2,"")</f>
-        <v>Wells</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="E2" s="10"/>
       <c r="G2" s="10"/>
@@ -2381,15 +2369,15 @@
       <c r="A3" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>42</v>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>AddNewButton</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>AddNew</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" t="str">
@@ -2405,22 +2393,22 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WellHeaderButton</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WellHeader</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="str">
@@ -2436,22 +2424,22 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DepthConversionButton</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>DepthConversion</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="str">
@@ -2467,22 +2455,22 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1.4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveAliasButton</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveAlias</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="str">
@@ -2502,15 +2490,15 @@
       <c r="A7" s="7">
         <v>1.5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>46</v>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FamilyEditButton</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>FamilyEdit</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="str">
@@ -2528,17 +2516,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Input/OutputToolbar</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Input/Output</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
@@ -2556,19 +2544,19 @@
       <c r="A9" s="12">
         <v>2.1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>169</v>
+      <c r="B9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportDropdown</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Import</v>
+        <v>99</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" t="str">
-        <f>SUBSTITUTE(J9,"_","-")</f>
+        <f t="shared" ref="F9:F26" si="3">SUBSTITUTE(J9,"_","-")</f>
         <v>file-import-32x32</v>
       </c>
       <c r="G9" s="13"/>
@@ -2581,26 +2569,26 @@
         <v>8</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportASCIIButton</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportASCII</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="str">
-        <f>SUBSTITUTE(J10,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="H10" t="str">
@@ -2612,26 +2600,26 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportMultiASCIIButton</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportMultiASCII</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="str">
-        <f>SUBSTITUTE(J11,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="H11" t="str">
@@ -2643,26 +2631,26 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportLASButton</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportLAS</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" t="str">
-        <f>SUBSTITUTE(J12,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>las-import-16x16</v>
       </c>
       <c r="H12" t="str">
@@ -2674,26 +2662,26 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportMultiLASButton</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportMultiLAS</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" t="str">
-        <f>SUBSTITUTE(J13,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>las-import-16x16</v>
       </c>
       <c r="H13" t="str">
@@ -2705,26 +2693,26 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Interval/CoreLoaderButton</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Interval/CoreLoader</v>
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" t="str">
-        <f>SUBSTITUTE(J14,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="H14" t="str">
@@ -2736,26 +2724,26 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Multi-wellCoreLoaderButton</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Multi-wellCoreLoader</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" t="str">
-        <f>SUBSTITUTE(J15,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>load-16x16</v>
       </c>
       <c r="H15" t="str">
@@ -2767,26 +2755,26 @@
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportWellHeaderButton</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportWellHeader</v>
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" t="str">
-        <f>SUBSTITUTE(J16,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="H16" t="str">
@@ -2798,26 +2786,26 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportWellTopButton</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportWellTop</v>
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" t="str">
-        <f>SUBSTITUTE(J17,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="H17" t="str">
@@ -2829,26 +2817,26 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportDropdown</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Export</v>
+        <v>99</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" t="str">
-        <f>SUBSTITUTE(J18,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>file-export-32x32</v>
       </c>
       <c r="G18" s="13"/>
@@ -2861,26 +2849,26 @@
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportASCIIButton</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportASCII</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="str">
-        <f>SUBSTITUTE(J19,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="H19" t="str">
@@ -2892,26 +2880,26 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportMultiASCIIButton</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportMultiASCII</v>
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" t="str">
-        <f>SUBSTITUTE(J20,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="H20" t="str">
@@ -2923,26 +2911,26 @@
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportLASButton</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportLAS</v>
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="str">
-        <f>SUBSTITUTE(J21,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>las-export-16x16</v>
       </c>
       <c r="H21" t="str">
@@ -2954,26 +2942,26 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportMultiLASButton</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportMultiLAS</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="str">
-        <f>SUBSTITUTE(J22,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>las-export-16x16</v>
       </c>
       <c r="H22" t="str">
@@ -2985,26 +2973,26 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportCoreDataButton</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportCoreData</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="str">
-        <f>SUBSTITUTE(J23,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="H23" t="str">
@@ -3016,26 +3004,26 @@
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Multi-wellCoreLoaderButton</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Multi-wellCoreLoader</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="str">
-        <f>SUBSTITUTE(J24,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="H24" t="str">
@@ -3047,26 +3035,26 @@
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportWellHeaderButton</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportWellHeader</v>
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" t="str">
-        <f>SUBSTITUTE(J25,"_","-")</f>
+        <f t="shared" si="3"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="H25" t="str">
@@ -3078,26 +3066,26 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportWellTopButton</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportWellTop</v>
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" t="str">
-        <f>SUBSTITUTE(J26,"_","-")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H26" t="str">
@@ -3119,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,8 +3116,8 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="40.140625" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
@@ -3146,13 +3134,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -3162,15 +3150,15 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
+      <c r="B2" s="10" t="str">
+        <f t="shared" ref="B2:B39" si="0">SUBSTITUTE(CONCATENATE(D2,H2)," ","")</f>
+        <v>LogPlotToolbar</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f t="shared" ref="D2:D39" si="0">REPLACE(B2, FIND(H2,B2),I2,"")</f>
-        <v>LogPlot</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="H2" t="str">
         <f>REPLACE(C2,1,2,"")</f>
@@ -3185,319 +3173,319 @@
       <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BlankLogplotButton</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>BlankLogplot</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
       </c>
       <c r="F3" t="str">
-        <f>SUBSTITUTE(J3,"_","-")</f>
+        <f t="shared" ref="F3:F12" si="1">SUBSTITUTE(J3,"_","-")</f>
         <v>logplot-blank-32x32</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H39" si="1">REPLACE(C3,1,2,"")</f>
+        <f t="shared" ref="H3:H39" si="2">REPLACE(C3,1,2,"")</f>
         <v>Button</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I39" si="2">LEN(H3)</f>
+        <f t="shared" ref="I3:I39" si="3">LEN(H3)</f>
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>65</v>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TrippleComboButton</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>TrippleCombo</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>241</v>
       </c>
       <c r="F4" t="str">
-        <f>SUBSTITUTE(J4,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-triple-combo-32x32</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>66</v>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DensityNeutronButton</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>DensityNeutron</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>242</v>
       </c>
       <c r="F5" t="str">
-        <f>SUBSTITUTE(J5,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-predefine-RHOB-NPHI-32x32</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>67</v>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ResistivitySonicButton</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>ResistivitySonic</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
       </c>
       <c r="F6" t="str">
-        <f>SUBSTITUTE(J6,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-predefine-RDT-16x16</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>210</v>
+      <c r="B7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>LogMoreDropdown</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LogMore</v>
+        <v>99</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="F7" t="str">
-        <f>SUBSTITUTE(J7,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-more-32x32</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dropdown</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3TracksBlankButton</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>TriTracksBlank</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
       </c>
       <c r="F8" t="str">
-        <f>SUBSTITUTE(J8,"_","-")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>InputCurveButton</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>InputCurve</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
       </c>
       <c r="F9" t="str">
-        <f>SUBSTITUTE(J9,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>curve-input-32x32</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>68</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Litho+Syn.CurveButton</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>LithoSynCurve</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
       </c>
       <c r="F10" t="str">
-        <f>SUBSTITUTE(J10,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-lythosyn-curve-32x32</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Syn.CurveButton</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>SynCurve</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
       </c>
       <c r="F11" t="str">
-        <f>SUBSTITUTE(J11,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-syn-curve-32x32</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ResultButton</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>Result</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>231</v>
       </c>
       <c r="F12" t="str">
-        <f>SUBSTITUTE(J12,"_","-")</f>
+        <f t="shared" si="1"/>
         <v>logplot-result-32x32</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
+      <c r="B13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>CrossPlotToolbar</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>CrossPlot</v>
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toolbar</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3505,472 +3493,472 @@
       <c r="A14" s="6">
         <v>2.1</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>70</v>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BlankCrossPlotButton</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>BlankCrossPlot</v>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>250</v>
       </c>
       <c r="F14" t="str">
-        <f>SUBSTITUTE(J14,"_","-")</f>
+        <f t="shared" ref="F14:F28" si="4">SUBSTITUTE(J14,"_","-")</f>
         <v>crossplot-new-32x32</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>71</v>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SonicPHI_TOTALButton</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>SonicPHI_TOTAL</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>251</v>
       </c>
       <c r="F15" t="str">
-        <f>SUBSTITUTE(J15,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-result-32x32</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>72</v>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NeutronDensityButton</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>NeutronDensity</v>
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>252</v>
       </c>
       <c r="F16" t="str">
-        <f>SUBSTITUTE(J16,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-ND-32x32</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2.4</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>73</v>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NeutronGammaButton</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>NeutronGamma</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>253</v>
       </c>
       <c r="F17" t="str">
-        <f>SUBSTITUTE(J17,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2.5</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>74</v>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SonicGammaButton</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>SonicGamma</v>
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
       </c>
       <c r="F18" t="str">
-        <f>SUBSTITUTE(J18,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2.6</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>208</v>
+      <c r="B19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>CrossMoreDropdown</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>CrossMore</v>
+        <v>99</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="F19" t="str">
-        <f>SUBSTITUTE(J19,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dropdown</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>NeuTronSonicButton</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>NeuTronSonic</v>
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>256</v>
       </c>
       <c r="F20" t="str">
-        <f>SUBSTITUTE(J20,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-NS-16x16</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DenityGammaButton</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>DenityGamma</v>
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
       </c>
       <c r="F21" t="str">
-        <f>SUBSTITUTE(J21,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>NeuTronRtButton</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>NeuTronRt</v>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
       </c>
       <c r="F22" t="str">
-        <f>SUBSTITUTE(J22,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-Rt-16x16</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DensitySonicButton</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>DensitySonic</v>
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>259</v>
       </c>
       <c r="F23" t="str">
-        <f>SUBSTITUTE(J23,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-DS-16x16</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DensityRtButton</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>DensityRt</v>
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>260</v>
       </c>
       <c r="F24" t="str">
-        <f>SUBSTITUTE(J24,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-DRt-16x16</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SonicDensityButton</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>SonicDensity</v>
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>261</v>
       </c>
       <c r="F25" t="str">
-        <f>SUBSTITUTE(J25,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-SD-16x16</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SonicRtButton</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>SonicRt</v>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
       </c>
       <c r="F26" t="str">
-        <f>SUBSTITUTE(J26,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-SRt-16x16</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>RtRx0Button</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>RtRx0</v>
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>232</v>
       </c>
       <c r="F27" t="str">
-        <f>SUBSTITUTE(J27,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-predefine-RtRxo-16x16</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PickettButton</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>Pickett</v>
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>233</v>
       </c>
       <c r="F28" t="str">
-        <f>SUBSTITUTE(J28,"_","-")</f>
+        <f t="shared" si="4"/>
         <v>crossplot-blank-16x16</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>14</v>
+      <c r="B29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HistogramToolbar</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Histogram</v>
+        <v>48</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Toolbar</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3978,300 +3966,300 @@
       <c r="A30" s="6">
         <v>3.1</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>84</v>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BlankHistogramButton</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>BlankHistogram</v>
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>263</v>
       </c>
       <c r="F30" t="str">
-        <f>SUBSTITUTE(J30,"_","-")</f>
+        <f t="shared" ref="F30:F39" si="5">SUBSTITUTE(J30,"_","-")</f>
         <v>histogram-new-32x32</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3.2</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>85</v>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PHI_TOTALButton</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>PHI_TOTAL</v>
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>235</v>
       </c>
       <c r="F31" t="str">
-        <f>SUBSTITUTE(J31,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-result-32x32</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>3.3</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>86</v>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>GammaRayButton</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>GammaRay</v>
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>264</v>
       </c>
       <c r="F32" t="str">
-        <f>SUBSTITUTE(J32,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-GR-32x32</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>3.4</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>87</v>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NeutronButton</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron</v>
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>236</v>
       </c>
       <c r="F33" t="str">
-        <f>SUBSTITUTE(J33,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-NPHI-16x16</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>3.5</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>88</v>
+      <c r="B34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DensityButton</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>Density</v>
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
       </c>
       <c r="F34" t="str">
-        <f>SUBSTITUTE(J34,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-RHOB-16x16</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>3.6</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>209</v>
+      <c r="B35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>HistogramMoreDropdown</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>HistogramMore</v>
+        <v>99</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="F35" t="str">
-        <f>SUBSTITUTE(J35,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-result-16x16</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dropdown</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SonicButton</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Sonic</v>
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
       </c>
       <c r="F36" t="str">
-        <f>SUBSTITUTE(J36,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-DT-16x16</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SallowResistivityButton</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>SallowResistivity</v>
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
       </c>
       <c r="F37" t="str">
-        <f>SUBSTITUTE(J37,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-LLS-16x16</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DeepResistivityButton</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>DeepResistivity</v>
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>267</v>
       </c>
       <c r="F38" t="str">
-        <f>SUBSTITUTE(J38,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-LLD-16x16</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>MSFLHistogramButton</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>MSFLHistogram</v>
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>268</v>
       </c>
       <c r="F39" t="str">
-        <f>SUBSTITUTE(J39,"_","-")</f>
+        <f t="shared" si="5"/>
         <v>histogram-predefine-MSFL-16x16</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4284,17 +4272,18 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4309,13 +4298,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -4325,15 +4314,15 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
+      <c r="B2" s="10" t="str">
+        <f t="shared" ref="B2:B32" si="0">SUBSTITUTE(CONCATENATE(D2,H2)," ","")</f>
+        <v>CurveToolbar</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f t="shared" ref="D2:D32" si="0">REPLACE(B2, FIND(H2,B2),I2,"")</f>
-        <v>Curve</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H32" si="1">REPLACE(C2,1,2,"")</f>
@@ -4346,20 +4335,20 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>AddCurveButton</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>AddCurve</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
       </c>
       <c r="F3" t="str">
-        <f>SUBSTITUTE(J3,"_","-")</f>
+        <f t="shared" ref="F3:F23" si="2">SUBSTITUTE(J3,"_","-")</f>
         <v>curve-new-32x32</v>
       </c>
       <c r="H3" t="str">
@@ -4367,29 +4356,29 @@
         <v>Button</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I32" si="2">LEN(H3)</f>
+        <f t="shared" ref="I3:I32" si="3">LEN(H3)</f>
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>EditTextCurveButton</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>EditTextCurve</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
       </c>
       <c r="F4" t="str">
-        <f>SUBSTITUTE(J4,"_","-")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H4" t="str">
@@ -4397,56 +4386,58 @@
         <v>Button</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>EditCurveDd</v>
-      </c>
-      <c r="F5" t="str">
-        <f>SUBSTITUTE(J5,"_","-")</f>
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>EditCurveDropdown</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>curve-edit-32x32</v>
       </c>
+      <c r="G5" s="13"/>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
+        <f>REPLACE(C5,1,2,"")</f>
+        <v>Dropdown</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>97</v>
+      <c r="A6" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveListing/EditButton</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveListing/Edit</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>275</v>
       </c>
       <c r="F6" t="str">
-        <f>SUBSTITUTE(J6,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-listing-32x32</v>
       </c>
       <c r="H6" t="str">
@@ -4454,29 +4445,29 @@
         <v>Button</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>98</v>
+      <c r="A7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>InteractiveCurveEditButton</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>InteractiveCurveEdit</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
       </c>
       <c r="F7" t="str">
-        <f>SUBSTITUTE(J7,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-interactive-edit-32x32</v>
       </c>
       <c r="H7" t="str">
@@ -4484,89 +4475,91 @@
         <v>Button</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>InteractiveBaselineShiftButton</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-interactive-baseline-edit-32x32</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitCurveDropdown</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>InteractiveBaselineShift</v>
-      </c>
-      <c r="F8" t="str">
-        <f>SUBSTITUTE(J8,"_","-")</f>
-        <v>curve-interactive-baseline-edit-32x32</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>SplitCurveDd</v>
-      </c>
-      <c r="F9" t="str">
-        <f>SUBSTITUTE(J9,"_","-")</f>
+      <c r="D9" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>curve-splice-32x32</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>101</v>
+      <c r="A10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitCurvesButton</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>SplitCurves</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
       </c>
       <c r="F10" t="str">
-        <f>SUBSTITUTE(J10,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-splice-32x32</v>
       </c>
       <c r="H10" t="str">
@@ -4574,29 +4567,29 @@
         <v>Button</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>102</v>
+      <c r="A11" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>InteractiveCurveSplitButton</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>InteractiveCurveSplit</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
       </c>
       <c r="F11" t="str">
-        <f>SUBSTITUTE(J11,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-splice-interactive-32x32</v>
       </c>
       <c r="H11" t="str">
@@ -4604,29 +4597,29 @@
         <v>Button</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>264</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>MergeCurvesButton</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>MergeCurves</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
       </c>
       <c r="F12" t="str">
-        <f>SUBSTITUTE(J12,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>caculation-multilinerregression-32x32</v>
       </c>
       <c r="H12" t="str">
@@ -4634,29 +4627,29 @@
         <v>Button</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurvesHeaderButton</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>CurvesHeader</v>
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
       </c>
       <c r="F13" t="str">
-        <f>SUBSTITUTE(J13,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-header-edit-16x16</v>
       </c>
       <c r="H13" t="str">
@@ -4664,29 +4657,29 @@
         <v>Button</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FillDataGapsButton</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>FillDataGaps</v>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
       </c>
       <c r="F14" t="str">
-        <f>SUBSTITUTE(J14,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-fill-data-gaps-16x16</v>
       </c>
       <c r="H14" t="str">
@@ -4694,29 +4687,29 @@
         <v>Button</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>294</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveFilterButton</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveFilter</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>284</v>
       </c>
       <c r="F15" t="str">
-        <f>SUBSTITUTE(J15,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="H15" t="str">
@@ -4724,29 +4717,29 @@
         <v>Button</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveConvolutionButton</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveConvolution</v>
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>285</v>
       </c>
       <c r="F16" t="str">
-        <f>SUBSTITUTE(J16,"_","-")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H16" t="str">
@@ -4754,26 +4747,26 @@
         <v>Button</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>108</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveDeconvolutionButton</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveDeconvolution</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
       </c>
       <c r="F17" t="str">
-        <f>SUBSTITUTE(J17,"_","-")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H17" t="str">
@@ -4781,26 +4774,26 @@
         <v>Button</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>231</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveDerivativeButton</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveDerivative</v>
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
       </c>
       <c r="F18" t="str">
-        <f>SUBSTITUTE(J18,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-edit-16x16</v>
       </c>
       <c r="H18" t="str">
@@ -4808,29 +4801,29 @@
         <v>Button</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>109</v>
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveRescaleButton</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveRescale</v>
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
       </c>
       <c r="F19" t="str">
-        <f>SUBSTITUTE(J19,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-rescale-16x16</v>
       </c>
       <c r="H19" t="str">
@@ -4838,29 +4831,29 @@
         <v>Button</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveComrarisonButton</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveComrarison</v>
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>289</v>
       </c>
       <c r="F20" t="str">
-        <f>SUBSTITUTE(J20,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-compare-16x16</v>
       </c>
       <c r="H20" t="str">
@@ -4868,29 +4861,29 @@
         <v>Button</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>111</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveAverageButton</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveAverage</v>
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
       </c>
       <c r="F21" t="str">
-        <f>SUBSTITUTE(J21,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-average-16x16</v>
       </c>
       <c r="H21" t="str">
@@ -4898,29 +4891,29 @@
         <v>Button</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FormationResistivityButton</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>FormationResistivity</v>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>291</v>
       </c>
       <c r="F22" t="str">
-        <f>SUBSTITUTE(J22,"_","-")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H22" t="str">
@@ -4928,26 +4921,26 @@
         <v>Button</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Badhole/Coal/SaltButton</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Badhole/Coal/Salt</v>
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>270</v>
       </c>
       <c r="F23" t="str">
-        <f>SUBSTITUTE(J23,"_","-")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" t="str">
@@ -4955,46 +4948,46 @@
         <v>Button</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>UserFormulaToolbar</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>UserFormula</v>
+        <v>48</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>114</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>UserFormulaButton</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>UserFormula</v>
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>292</v>
       </c>
       <c r="F25" t="str">
         <f>SUBSTITUTE(J25,"_","-")</f>
@@ -5005,26 +4998,26 @@
         <v>Button</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>115</v>
+        <v>41</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>UserProgramButton</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>UserProgram</v>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>293</v>
       </c>
       <c r="F26" t="str">
         <f>SUBSTITUTE(J26,"_","-")</f>
@@ -5035,26 +5028,26 @@
         <v>Button</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PythonProgramButton</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>PythonProgram</v>
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>294</v>
       </c>
       <c r="F27" t="str">
         <f>SUBSTITUTE(J27,"_","-")</f>
@@ -5065,23 +5058,23 @@
         <v>Button</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>302</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>CalculationToolbar</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="10" t="str">
-        <f>REPLACE(B28, FIND(H28,B28),I28,"")</f>
-        <v>Calculation</v>
+        <v>48</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="E28" s="10"/>
       <c r="G28" s="10"/>
@@ -5090,24 +5083,24 @@
         <v>Toolbar</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TVDConversionButton</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>TVDConversion</v>
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>295</v>
       </c>
       <c r="F29" t="str">
         <f>SUBSTITUTE(J29,"_","-")</f>
@@ -5118,26 +5111,26 @@
         <v>Button</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PCAAnalysisButton</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>PCAAnalysis</v>
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>296</v>
       </c>
       <c r="F30" t="str">
         <f>SUBSTITUTE(J30,"_","-")</f>
@@ -5148,23 +5141,23 @@
         <v>Button</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Multi-LinearRegressionButton</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Multi-LinearRegression</v>
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>297</v>
       </c>
       <c r="F31" t="str">
         <f>SUBSTITUTE(J31,"_","-")</f>
@@ -5175,26 +5168,26 @@
         <v>Button</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NeuralNetworkButton</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>NeuralNetwork</v>
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>298</v>
       </c>
       <c r="F32" t="str">
         <f>SUBSTITUTE(J32,"_","-")</f>
@@ -5205,15 +5198,16 @@
         <v>Button</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5222,7 +5216,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5230,8 +5224,8 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5247,13 +5241,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -5263,15 +5257,15 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
+      <c r="B2" s="10" t="str">
+        <f t="shared" ref="B2:B24" si="0">SUBSTITUTE(CONCATENATE(D2,H2)," ","")</f>
+        <v>Basement/TightSandstoneToolbar</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f t="shared" ref="D2:D7" si="0">REPLACE(B2, FIND(H2,B2),I2,"")</f>
-        <v>Basement/Tight Sandstone</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H24" si="1">REPLACE(C2,1,2,"")</f>
@@ -5286,18 +5280,18 @@
       <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>150</v>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>EditZonesButton</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>EditZones</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
       </c>
       <c r="F3" t="str">
-        <f>SUBSTITUTE(J3,"_","-")</f>
+        <f t="shared" ref="F3:F19" si="2">SUBSTITUTE(J3,"_","-")</f>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="H3" t="str">
@@ -5305,29 +5299,29 @@
         <v>Button</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I24" si="2">LEN(H3)</f>
+        <f t="shared" ref="I3:I24" si="3">LEN(H3)</f>
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>151</v>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>InputCurvesButton</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>InputCurves</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
       </c>
       <c r="F4" t="str">
-        <f>SUBSTITUTE(J4,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-input-32x32</v>
       </c>
       <c r="H4" t="str">
@@ -5335,29 +5329,29 @@
         <v>Button</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>230</v>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>InputFuidButton</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>InputFuid</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
       </c>
       <c r="F5" t="str">
-        <f>SUBSTITUTE(J5,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>fluid-input-32x32</v>
       </c>
       <c r="H5" t="str">
@@ -5365,29 +5359,29 @@
         <v>Button</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>152</v>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BuildMineralParametersButton</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>BuildMineralParameters</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
       </c>
       <c r="F6" t="str">
-        <f>SUBSTITUTE(J6,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>mineral-zone-parameter-build-32x32</v>
       </c>
       <c r="H6" t="str">
@@ -5395,29 +5389,29 @@
         <v>Button</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1.5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>153</v>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>InputMineralZonesButton</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>InputMineralZones</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
       </c>
       <c r="F7" t="str">
-        <f>SUBSTITUTE(J7,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="H7" t="str">
@@ -5425,29 +5419,29 @@
         <v>Button</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>154</v>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Multi-MineralSolverButton</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:D24" si="3">REPLACE(B8, FIND(H8,B8),I8,"")</f>
-        <v>Multi-MineralSolver</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
       </c>
       <c r="F8" t="str">
-        <f>SUBSTITUTE(J8,"_","-")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H8" t="str">
@@ -5455,7 +5449,7 @@
         <v>Button</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5463,18 +5457,18 @@
       <c r="A9" s="6">
         <v>1.7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>310</v>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ClayMineralsVolumeButton</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="3"/>
-        <v>ClayMineralsVolume</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
       </c>
       <c r="F9" t="str">
-        <f>SUBSTITUTE(J9,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>Vclay-32x32</v>
       </c>
       <c r="H9" t="str">
@@ -5482,29 +5476,29 @@
         <v>Button</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1.8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>311</v>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Fracture-VugPorosityButton</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="3"/>
-        <v>FractureVugPorosity</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
       </c>
       <c r="F10" t="str">
-        <f>SUBSTITUTE(J10,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>secondary-porosity-32x32</v>
       </c>
       <c r="H10" t="str">
@@ -5512,29 +5506,29 @@
         <v>Button</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1.9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>313</v>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>OpenPorosityButton</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="3"/>
-        <v>OpenPorosity</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
       </c>
       <c r="F11" t="str">
-        <f>SUBSTITUTE(J11,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>calculate-open-porosity-32x32</v>
       </c>
       <c r="H11" t="str">
@@ -5542,29 +5536,29 @@
         <v>Button</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SecondaryPorosityButton</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="3"/>
-        <v>SecondaryPorosity</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>305</v>
       </c>
       <c r="F12" t="str">
-        <f>SUBSTITUTE(J12,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>secondary-porosity-32x32</v>
       </c>
       <c r="H12" t="str">
@@ -5572,29 +5566,29 @@
         <v>Button</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>156</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FracturePorosityButton</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="3"/>
-        <v>FracturePorosity</v>
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>318</v>
       </c>
       <c r="F13" t="str">
-        <f>SUBSTITUTE(J13,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>fracture-porosity-permeability-32x32</v>
       </c>
       <c r="H13" t="str">
@@ -5602,29 +5596,29 @@
         <v>Button</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>322</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FilteringFractureButton</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="3"/>
-        <v>FilteringFracture</v>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>319</v>
       </c>
       <c r="F14" t="str">
-        <f>SUBSTITUTE(J14,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>phi2fil-phio-32x32</v>
       </c>
       <c r="H14" t="str">
@@ -5632,29 +5626,29 @@
         <v>Button</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>157</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Micro&amp;MacroPorosityButton</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="3"/>
-        <v>Micro&amp;MacroPorosity</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
       </c>
       <c r="F15" t="str">
-        <f>SUBSTITUTE(J15,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>mineral-volume-32x32</v>
       </c>
       <c r="H15" t="str">
@@ -5662,29 +5656,29 @@
         <v>Button</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>229</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WaterSaturationButton</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="3"/>
-        <v>WaterSaturation</v>
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>321</v>
       </c>
       <c r="F16" t="str">
-        <f>SUBSTITUTE(J16,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>water-saturation-32x32</v>
       </c>
       <c r="H16" t="str">
@@ -5692,29 +5686,29 @@
         <v>Button</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>158</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PermeabilityButton</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="3"/>
-        <v>Permeability</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>306</v>
       </c>
       <c r="F17" t="str">
-        <f>SUBSTITUTE(J17,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>calculate-permeability-32x32</v>
       </c>
       <c r="H17" t="str">
@@ -5722,29 +5716,29 @@
         <v>Button</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>159</v>
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CutoffandSummationButton</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="3"/>
-        <v>CutoffandSummation</v>
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>322</v>
       </c>
       <c r="F18" t="str">
-        <f>SUBSTITUTE(J18,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>summation-32x32</v>
       </c>
       <c r="H18" t="str">
@@ -5752,29 +5746,29 @@
         <v>Button</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>325</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FilteringButton</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="3"/>
-        <v>Filtering</v>
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>307</v>
       </c>
       <c r="F19" t="str">
-        <f>SUBSTITUTE(J19,"_","-")</f>
+        <f t="shared" si="2"/>
         <v>curve-filter-32x32</v>
       </c>
       <c r="H19" t="str">
@@ -5782,33 +5776,33 @@
         <v>Button</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
+      <c r="B20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ClasticToolbar</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>Clastic</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5816,15 +5810,15 @@
       <c r="A21" s="6">
         <v>2.1</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>160</v>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BasicAnalysisButton</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="3"/>
-        <v>BasicAnalysis</v>
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>323</v>
       </c>
       <c r="F21" t="str">
         <f>SUBSTITUTE(J21,"_","-")</f>
@@ -5835,26 +5829,26 @@
         <v>Button</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>161</v>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ClayVolumeButton</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="3"/>
-        <v>ClayVolume</v>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>324</v>
       </c>
       <c r="F22" t="str">
         <f>SUBSTITUTE(J22,"_","-")</f>
@@ -5865,7 +5859,7 @@
         <v>Button</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5873,15 +5867,15 @@
       <c r="A23" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>162</v>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Porosity&amp;WaterSaturationButton</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="3"/>
-        <v>Porosity&amp;WaterSaturation</v>
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>325</v>
       </c>
       <c r="F23" t="str">
         <f>SUBSTITUTE(J23,"_","-")</f>
@@ -5892,26 +5886,26 @@
         <v>Button</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2.4</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>159</v>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CutoffandSummationButton</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
-        <v>CutoffandSummation</v>
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>322</v>
       </c>
       <c r="F24" t="str">
         <f>SUBSTITUTE(J24,"_","-")</f>
@@ -5922,11 +5916,11 @@
         <v>Button</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5938,8 +5932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,13 +5956,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -5978,15 +5972,15 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>176</v>
+      <c r="B2" s="10" t="str">
+        <f>SUBSTITUTE(CONCATENATE(D2,H2)," ","")</f>
+        <v>HelpToolbar</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>REPLACE(B2, FIND(H2,B2),I2,"")</f>
-        <v>Help</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="H2" t="str">
         <f>REPLACE(C2,1,2,"")</f>
@@ -5999,17 +5993,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>SUBSTITUTE(CONCATENATE(D3,H3)," ","")</f>
+        <v>HelpButton</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="str">
-        <f>REPLACE(B3, FIND(H3,B3),I3,"")</f>
-        <v>Help</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(J3,"_","-")</f>
@@ -6024,22 +6018,22 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
+      <c r="B4" s="7" t="str">
+        <f>SUBSTITUTE(CONCATENATE(D4,H4)," ","")</f>
+        <v>AboutButton</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f>REPLACE(B4, FIND(H4,B4),I4,"")</f>
-        <v>About</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(J4,"_","-")</f>
@@ -6054,22 +6048,22 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>173</v>
+      <c r="B5" s="7" t="str">
+        <f>SUBSTITUTE(CONCATENATE(D5,H5)," ","")</f>
+        <v>UnlockButton</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="str">
-        <f>REPLACE(B5, FIND(H5,B5),I5,"")</f>
-        <v>Unlock</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
       </c>
       <c r="F5" t="str">
         <f>SUBSTITUTE(J5,"_","-")</f>
@@ -6117,13 +6111,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -6134,13 +6128,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="H2" t="str">
         <f>REPLACE(C2,1,2,"")</f>
@@ -6156,10 +6150,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="D3" t="str">
         <f>REPLACE(B3, FIND(H3,B3),I3,"")</f>
@@ -6179,10 +6173,10 @@
         <v>1.2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="D4" t="str">
         <f>REPLACE(B4, FIND(H4,B4),I4,"")</f>
@@ -6202,13 +6196,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="H5" t="str">
         <f>REPLACE(C5,1,2,"")</f>
@@ -6224,10 +6218,10 @@
         <v>2.1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="D6" t="str">
         <f>REPLACE(B6, FIND(H6,B6),I6,"")</f>

--- a/Wi-UI.xlsx
+++ b/Wi-UI.xlsx
@@ -19,7 +19,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="325">
   <si>
     <t>Code</t>
   </si>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>DataProcessing</t>
+  </si>
+  <si>
+    <t>confirm dialog</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1756,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1772,7 @@
     <col min="3" max="3" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -1780,14 +1783,14 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -1799,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -1811,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -1820,10 +1823,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -1832,10 +1838,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -1846,15 +1852,18 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -1863,7 +1872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -1872,7 +1881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -1881,7 +1890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -1890,7 +1899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -1899,7 +1908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -1908,7 +1917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -1917,7 +1926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>

--- a/Wi-UI.xlsx
+++ b/Wi-UI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="480" windowWidth="25520" windowHeight="15540" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="333">
   <si>
     <t>Code</t>
   </si>
@@ -1021,6 +1021,21 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>ribbon</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1185,6 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1622,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1636,7 +1652,7 @@
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1664,8 +1680,14 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1687,8 +1709,14 @@
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1713,8 +1741,14 @@
       <c r="G3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -1739,8 +1773,14 @@
       <c r="G4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1765,8 +1805,14 @@
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>
@@ -1791,8 +1837,14 @@
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -1811,8 +1863,14 @@
       <c r="G7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -1831,8 +1889,14 @@
       <c r="G8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -1854,8 +1918,14 @@
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1866,7 +1936,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1877,7 +1947,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1888,7 +1958,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="23"/>
@@ -1899,7 +1969,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="23"/>
@@ -1910,7 +1980,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -3111,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3227,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3240,7 +3310,7 @@
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3272,6 +3342,12 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3296,6 +3372,12 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3323,6 +3405,12 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3350,6 +3438,12 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>332</v>
+      </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3377,6 +3471,12 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3404,6 +3504,12 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3433,6 +3539,12 @@
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3460,6 +3572,12 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3487,6 +3605,12 @@
       <c r="G9" t="s">
         <v>41</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3514,6 +3638,12 @@
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3541,6 +3671,12 @@
       <c r="G11" t="s">
         <v>44</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -3567,6 +3703,12 @@
       <c r="G12" t="s">
         <v>46</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -3593,6 +3735,12 @@
       <c r="G13" t="s">
         <v>48</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -3616,6 +3764,12 @@
       <c r="G14" t="s">
         <v>50</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -3641,6 +3795,12 @@
       </c>
       <c r="G15" t="s">
         <v>50</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3651,10 +3811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3665,10 +3825,11 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3696,8 +3857,14 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3719,9 +3886,14 @@
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3746,20 +3918,26 @@
       <c r="G3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B26" si="0">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
+        <f t="shared" ref="B4:B15" si="0">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
         <v>WellHeaderButton</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:F26" si="1">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4:D26" si="1">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3772,8 +3950,14 @@
       <c r="G4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3798,8 +3982,14 @@
       <c r="G5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -3822,8 +4012,14 @@
       <c r="G6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -3846,8 +4042,14 @@
       <c r="G7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -3872,9 +4074,14 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
@@ -3901,9 +4108,14 @@
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -3928,8 +4140,14 @@
       <c r="G10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -3954,8 +4172,14 @@
       <c r="G11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -3980,8 +4204,14 @@
       <c r="G12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4006,8 +4236,14 @@
       <c r="G13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4032,8 +4268,14 @@
       <c r="G14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -4058,8 +4300,14 @@
       <c r="G15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4084,8 +4332,14 @@
       <c r="G16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4110,8 +4364,14 @@
       <c r="G17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -4138,9 +4398,14 @@
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4165,8 +4430,14 @@
       <c r="G19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4191,8 +4462,14 @@
       <c r="G20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
@@ -4217,8 +4494,14 @@
       <c r="G21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
@@ -4243,8 +4526,14 @@
       <c r="G22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
@@ -4269,8 +4558,14 @@
       <c r="G23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -4295,8 +4590,14 @@
       <c r="G24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -4321,8 +4622,14 @@
       <c r="G25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -4345,8 +4652,14 @@
       <c r="G26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -4357,7 +4670,7 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -4368,7 +4681,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="23"/>
@@ -4379,7 +4692,7 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="23"/>
@@ -4706,10 +5019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4717,9 +5030,10 @@
     <col min="1" max="1" width="8.83203125" style="6"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4747,8 +5061,14 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4770,8 +5090,14 @@
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -4796,8 +5122,14 @@
       <c r="G3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -4822,8 +5154,14 @@
       <c r="G4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -4848,8 +5186,14 @@
       <c r="G5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -4874,8 +5218,14 @@
       <c r="G6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -4902,8 +5252,14 @@
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -4925,8 +5281,14 @@
       <c r="G8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -4951,8 +5313,14 @@
       <c r="G9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>120</v>
       </c>
@@ -4977,8 +5345,14 @@
       <c r="G10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>123</v>
       </c>
@@ -5003,8 +5377,14 @@
       <c r="G11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>126</v>
       </c>
@@ -5029,8 +5409,14 @@
       <c r="G12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -5055,8 +5441,14 @@
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2.1</v>
       </c>
@@ -5081,8 +5473,14 @@
       <c r="G14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -5107,8 +5505,14 @@
       <c r="G15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -5133,8 +5537,14 @@
       <c r="G16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2.4</v>
       </c>
@@ -5159,8 +5569,14 @@
       <c r="G17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2.5</v>
       </c>
@@ -5185,8 +5601,14 @@
       <c r="G18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2.6</v>
       </c>
@@ -5213,8 +5635,14 @@
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>141</v>
       </c>
@@ -5239,8 +5667,14 @@
       <c r="G20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>144</v>
       </c>
@@ -5265,8 +5699,14 @@
       <c r="G21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>146</v>
       </c>
@@ -5291,8 +5731,14 @@
       <c r="G22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>149</v>
       </c>
@@ -5317,8 +5763,14 @@
       <c r="G23" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>152</v>
       </c>
@@ -5343,8 +5795,14 @@
       <c r="G24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>155</v>
       </c>
@@ -5369,8 +5827,14 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>158</v>
       </c>
@@ -5395,8 +5859,14 @@
       <c r="G26" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>161</v>
       </c>
@@ -5421,8 +5891,14 @@
       <c r="G27" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>164</v>
       </c>
@@ -5447,8 +5923,14 @@
       <c r="G28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -5473,8 +5955,14 @@
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>3.1</v>
       </c>
@@ -5499,8 +5987,14 @@
       <c r="G30" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>3.2</v>
       </c>
@@ -5525,8 +6019,14 @@
       <c r="G31" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>3.3</v>
       </c>
@@ -5551,8 +6051,14 @@
       <c r="G32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>3.4</v>
       </c>
@@ -5577,8 +6083,14 @@
       <c r="G33" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>3.5</v>
       </c>
@@ -5603,8 +6115,14 @@
       <c r="G34" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>3.6</v>
       </c>
@@ -5631,8 +6149,14 @@
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>180</v>
       </c>
@@ -5657,8 +6181,14 @@
       <c r="G36" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>183</v>
       </c>
@@ -5683,8 +6213,14 @@
       <c r="G37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>186</v>
       </c>
@@ -5709,8 +6245,14 @@
       <c r="G38" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>189</v>
       </c>
@@ -5735,8 +6277,14 @@
       <c r="G39" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -5747,7 +6295,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -5758,7 +6306,7 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -5769,7 +6317,7 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -5780,7 +6328,7 @@
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -5791,7 +6339,7 @@
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -5802,7 +6350,7 @@
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -5813,7 +6361,7 @@
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
@@ -6596,7 +7144,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D119" s="1" t="str">
-        <f t="shared" ref="D109:D152" si="3">REPLACE(C119, 1, 2, "")</f>
+        <f t="shared" ref="D119:D152" si="3">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
@@ -6809,7 +7357,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6821,7 +7369,7 @@
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6849,8 +7397,14 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6872,8 +7426,14 @@
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>193</v>
       </c>
@@ -6898,8 +7458,14 @@
       <c r="G3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>196</v>
       </c>
@@ -6911,7 +7477,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:F4" si="1">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4" si="1">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="F4" t="str">
@@ -6921,8 +7487,14 @@
       <c r="G4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>198</v>
       </c>
@@ -6934,7 +7506,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="11" t="str">
-        <f t="shared" ref="D5:F5" si="3">REPLACE(C5, 1, 2, "")</f>
+        <f t="shared" ref="D5" si="3">REPLACE(C5, 1, 2, "")</f>
         <v>Dropdown</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -6949,8 +7521,14 @@
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>201</v>
       </c>
@@ -6962,7 +7540,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:F21" si="4">REPLACE(C6, 1, 2, "")</f>
+        <f t="shared" ref="D6:D21" si="4">REPLACE(C6, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E6" t="s">
@@ -6975,8 +7553,14 @@
       <c r="G6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>204</v>
       </c>
@@ -7001,8 +7585,14 @@
       <c r="G7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>207</v>
       </c>
@@ -7027,8 +7617,14 @@
       <c r="G8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>210</v>
       </c>
@@ -7055,8 +7651,14 @@
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>213</v>
       </c>
@@ -7081,8 +7683,14 @@
       <c r="G10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>215</v>
       </c>
@@ -7107,8 +7715,14 @@
       <c r="G11" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -7133,8 +7747,14 @@
       <c r="G12" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>220</v>
       </c>
@@ -7159,8 +7779,14 @@
       <c r="G13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>223</v>
       </c>
@@ -7185,8 +7811,14 @@
       <c r="G14" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>226</v>
       </c>
@@ -7211,8 +7843,14 @@
       <c r="G15" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>229</v>
       </c>
@@ -7234,8 +7872,14 @@
       <c r="G16" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>231</v>
       </c>
@@ -7257,8 +7901,14 @@
       <c r="G17" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>233</v>
       </c>
@@ -7283,8 +7933,14 @@
       <c r="G18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>236</v>
       </c>
@@ -7309,8 +7965,14 @@
       <c r="G19" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
@@ -7335,8 +7997,14 @@
       <c r="G20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>242</v>
       </c>
@@ -7361,8 +8029,14 @@
       <c r="G21" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>245</v>
       </c>
@@ -7384,8 +8058,14 @@
       <c r="G22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>247</v>
       </c>
@@ -7407,8 +8087,14 @@
       <c r="G23" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
@@ -7433,8 +8119,14 @@
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>250</v>
       </c>
@@ -7459,9 +8151,14 @@
       <c r="G25" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
@@ -7486,9 +8183,14 @@
       <c r="G26" t="s">
         <v>252</v>
       </c>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>254</v>
       </c>
@@ -7510,9 +8212,14 @@
       <c r="G27" t="s">
         <v>255</v>
       </c>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>256</v>
       </c>
@@ -7537,9 +8244,14 @@
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>258</v>
       </c>
@@ -7564,9 +8276,14 @@
       <c r="G29" t="s">
         <v>259</v>
       </c>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>261</v>
       </c>
@@ -7588,9 +8305,14 @@
       <c r="G30" t="s">
         <v>262</v>
       </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>263</v>
       </c>
@@ -7615,8 +8337,14 @@
       <c r="G31" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>265</v>
       </c>
@@ -7640,6 +8368,12 @@
       </c>
       <c r="G32" t="s">
         <v>266</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -8095,7 +8829,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K2" sqref="K2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8105,7 +8839,7 @@
     <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8133,8 +8867,14 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8159,8 +8899,14 @@
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -8185,8 +8931,14 @@
       <c r="G3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -8198,7 +8950,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:F4" si="2">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4" si="2">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E4" t="s">
@@ -8211,8 +8963,14 @@
       <c r="G4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -8224,7 +8982,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:F5" si="3">REPLACE(C5, 1, 2, "")</f>
+        <f t="shared" ref="D5" si="3">REPLACE(C5, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E5" t="s">
@@ -8237,8 +8995,14 @@
       <c r="G5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -8250,7 +9014,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:F21" si="4">REPLACE(C6, 1, 2, "")</f>
+        <f t="shared" ref="D6:D21" si="4">REPLACE(C6, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E6" t="s">
@@ -8263,8 +9027,14 @@
       <c r="G6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -8289,8 +9059,14 @@
       <c r="G7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -8312,8 +9088,14 @@
       <c r="G8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1.7</v>
       </c>
@@ -8338,8 +9120,14 @@
       <c r="G9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1.8</v>
       </c>
@@ -8364,8 +9152,14 @@
       <c r="G10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1.9</v>
       </c>
@@ -8390,8 +9184,14 @@
       <c r="G11" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>231</v>
       </c>
@@ -8416,8 +9216,14 @@
       <c r="G12" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>233</v>
       </c>
@@ -8442,8 +9248,14 @@
       <c r="G13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>236</v>
       </c>
@@ -8468,8 +9280,14 @@
       <c r="G14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>239</v>
       </c>
@@ -8494,8 +9312,14 @@
       <c r="G15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>242</v>
       </c>
@@ -8519,6 +9343,12 @@
       </c>
       <c r="G16" t="s">
         <v>291</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -8546,6 +9376,12 @@
       <c r="G17" t="s">
         <v>293</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -8572,6 +9408,12 @@
       <c r="G18" t="s">
         <v>295</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -8598,6 +9440,12 @@
       <c r="G19" t="s">
         <v>298</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -8624,6 +9472,12 @@
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
+      <c r="J20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
@@ -8650,6 +9504,12 @@
       <c r="G21" t="s">
         <v>301</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
@@ -8673,6 +9533,12 @@
       <c r="G22" t="s">
         <v>303</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
@@ -8699,6 +9565,12 @@
       <c r="G23" t="s">
         <v>304</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
@@ -8724,6 +9596,12 @@
       </c>
       <c r="G24" t="s">
         <v>295</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -9109,10 +9987,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9120,7 +9998,7 @@
     <col min="1" max="1" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9148,8 +10026,14 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -9171,8 +10055,14 @@
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>193</v>
       </c>
@@ -9197,8 +10087,14 @@
       <c r="G3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -9210,7 +10106,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:F4" si="1">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4" si="1">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E4" t="s">
@@ -9223,8 +10119,14 @@
       <c r="G4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -9236,7 +10138,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:F5" si="3">REPLACE(C5, 1, 2, "")</f>
+        <f t="shared" ref="D5" si="3">REPLACE(C5, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="F5" t="str">
@@ -9246,8 +10148,14 @@
       <c r="G5" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -9259,7 +10167,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -9271,7 +10179,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -9283,7 +10191,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="23"/>
@@ -9295,7 +10203,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="23"/>
@@ -9307,7 +10215,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="23"/>
@@ -9319,7 +10227,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="23"/>
@@ -9331,7 +10239,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -9353,7 +10261,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9390,6 +10298,12 @@
       <c r="I1" t="s">
         <v>326</v>
       </c>
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
@@ -9413,6 +10327,12 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -9439,6 +10359,12 @@
       <c r="G3" t="s">
         <v>44</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -9452,7 +10378,7 @@
         <v>312</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:F4" si="1">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4" si="1">REPLACE(C4, 1, 2, "")</f>
         <v>Treeview</v>
       </c>
       <c r="E4" t="s">
@@ -9465,6 +10391,12 @@
       <c r="G4" t="s">
         <v>44</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
@@ -9478,7 +10410,7 @@
         <v>313</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" ref="D5:F5" si="3">REPLACE(C5, 1, 2, "")</f>
+        <f t="shared" ref="D5" si="3">REPLACE(C5, 1, 2, "")</f>
         <v>Tabs</v>
       </c>
       <c r="E5" s="21"/>
@@ -9491,6 +10423,12 @@
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
+      <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -9504,7 +10442,7 @@
         <v>315</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:F6" si="4">REPLACE(C6, 1, 2, "")</f>
+        <f t="shared" ref="D6" si="4">REPLACE(C6, 1, 2, "")</f>
         <v>List</v>
       </c>
       <c r="F6" t="str">
@@ -9513,6 +10451,12 @@
       </c>
       <c r="G6" t="s">
         <v>316</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/Wi-UI.xlsx
+++ b/Wi-UI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="480" windowWidth="25520" windowHeight="15540" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3298,7 +3298,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3409,7 +3409,7 @@
         <v>329</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N3" s="1"/>
     </row>

--- a/Wi-UI.xlsx
+++ b/Wi-UI.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TooNies1810/Documents/lab/ribon-angular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="334">
   <si>
     <t>Code</t>
   </si>
@@ -1036,6 +1031,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>icon-left</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1562,12 +1560,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1603,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1644,15 +1642,15 @@
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -1925,7 +1923,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1936,7 +1934,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1947,7 +1945,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1958,7 +1956,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="23"/>
@@ -1969,7 +1967,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="23"/>
@@ -1980,7 +1978,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -1991,7 +1989,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24"/>
@@ -2002,7 +2000,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2013,7 +2011,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -2024,7 +2022,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -2035,7 +2033,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2046,7 +2044,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2057,7 +2055,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2082,14 +2080,14 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -2100,14 +2098,14 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2119,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2131,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2146,7 +2144,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2158,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2173,14 +2171,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2189,7 +2187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2198,7 +2196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2207,7 +2205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2216,7 +2214,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2225,7 +2223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2234,7 +2232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2243,7 +2241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2252,7 +2250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2261,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2270,7 +2268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2279,7 +2277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2288,7 +2286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2297,7 +2295,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2306,7 +2304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2315,7 +2313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2324,7 +2322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2333,7 +2331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2342,7 +2340,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2351,7 +2349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2360,7 +2358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2369,7 +2367,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2378,14 +2376,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2394,7 +2392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2403,7 +2401,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2412,7 +2410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2421,7 +2419,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2430,7 +2428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2439,7 +2437,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2448,7 +2446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2457,7 +2455,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2466,7 +2464,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2475,7 +2473,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2484,7 +2482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2493,7 +2491,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2502,7 +2500,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2511,7 +2509,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2520,7 +2518,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2529,7 +2527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2538,7 +2536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2547,7 +2545,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2556,7 +2554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2565,7 +2563,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2574,7 +2572,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2583,7 +2581,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2592,7 +2590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2601,7 +2599,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2610,7 +2608,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2619,7 +2617,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2628,7 +2626,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2637,7 +2635,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2646,7 +2644,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2655,7 +2653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2664,7 +2662,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2673,7 +2671,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2682,7 +2680,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2691,14 +2689,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2707,7 +2705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2716,7 +2714,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2725,7 +2723,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2734,7 +2732,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2743,7 +2741,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2752,7 +2750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2761,7 +2759,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2770,7 +2768,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2779,7 +2777,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2788,7 +2786,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2797,7 +2795,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2806,7 +2804,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2815,7 +2813,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2824,7 +2822,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2833,7 +2831,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2842,7 +2840,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2851,7 +2849,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2860,7 +2858,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2869,7 +2867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2878,7 +2876,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2887,7 +2885,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -2896,7 +2894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -2905,7 +2903,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -2914,7 +2912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -2923,7 +2921,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -2932,7 +2930,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -2941,14 +2939,14 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -2957,7 +2955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -2966,7 +2964,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -2975,7 +2973,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -2984,7 +2982,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -2993,7 +2991,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -3002,7 +3000,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -3011,7 +3009,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -3020,7 +3018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -3029,7 +3027,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -3038,7 +3036,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -3047,7 +3045,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -3056,7 +3054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -3065,7 +3063,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -3074,7 +3072,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -3083,7 +3081,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3092,7 +3090,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -3101,7 +3099,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -3110,7 +3108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -3119,7 +3117,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3128,7 +3126,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3137,7 +3135,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3146,14 +3144,14 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3162,7 +3160,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3185,9 +3183,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3201,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3213,7 +3211,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3224,7 +3222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -3235,7 +3233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -3268,7 +3266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.6</v>
       </c>
@@ -3297,24 +3295,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3348,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3380,7 +3378,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3413,7 +3411,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -3446,7 +3444,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -3479,7 +3477,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -3512,7 +3510,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3547,7 +3545,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -3580,7 +3578,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3613,7 +3611,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3646,7 +3644,7 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2.1</v>
       </c>
@@ -3678,7 +3676,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -3771,7 +3769,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3.1</v>
       </c>
@@ -3817,19 +3815,19 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3862,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3893,7 +3891,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3925,7 +3923,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -3957,7 +3955,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -4049,7 +4047,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
@@ -4115,7 +4113,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -4179,7 +4177,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -4211,7 +4209,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4243,7 +4241,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4275,7 +4273,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -4307,7 +4305,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4339,7 +4337,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4371,7 +4369,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -4405,7 +4403,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4437,7 +4435,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -4597,7 +4595,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -4629,7 +4627,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -4659,7 +4657,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -4670,7 +4668,7 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -4681,7 +4679,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="23"/>
@@ -4692,7 +4690,7 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="23"/>
@@ -4703,7 +4701,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="23"/>
@@ -4714,7 +4712,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="23"/>
@@ -4725,7 +4723,7 @@
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="23"/>
@@ -4736,7 +4734,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="23"/>
@@ -4747,7 +4745,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="23"/>
@@ -4758,7 +4756,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="23"/>
@@ -4769,7 +4767,7 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="23"/>
@@ -4780,7 +4778,7 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="23"/>
@@ -4791,7 +4789,7 @@
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="23"/>
@@ -4802,7 +4800,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="23"/>
@@ -4813,7 +4811,7 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="23"/>
@@ -4824,7 +4822,7 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="23"/>
@@ -4835,7 +4833,7 @@
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="23"/>
@@ -4846,7 +4844,7 @@
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
@@ -4857,7 +4855,7 @@
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="23"/>
@@ -4868,7 +4866,7 @@
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="23"/>
@@ -4879,7 +4877,7 @@
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="23"/>
@@ -4890,7 +4888,7 @@
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="23"/>
@@ -4901,7 +4899,7 @@
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="23"/>
@@ -4912,7 +4910,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
       <c r="C52" s="23"/>
@@ -4923,7 +4921,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="23"/>
@@ -4934,7 +4932,7 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
       <c r="C54" s="23"/>
@@ -4945,7 +4943,7 @@
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="26"/>
       <c r="C55" s="23"/>
@@ -4956,7 +4954,7 @@
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -4967,7 +4965,7 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -4978,7 +4976,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -4989,7 +4987,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -5000,7 +4998,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5021,19 +5019,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -5281,6 +5281,9 @@
       <c r="G8" t="s">
         <v>117</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>329</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -5313,6 +5316,9 @@
       <c r="G9" t="s">
         <v>118</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>329</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>120</v>
       </c>
@@ -5345,6 +5351,9 @@
       <c r="G10" t="s">
         <v>121</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>329</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>123</v>
       </c>
@@ -5377,6 +5386,9 @@
       <c r="G11" t="s">
         <v>124</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>329</v>
       </c>
@@ -5384,7 +5396,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>126</v>
       </c>
@@ -5409,6 +5421,9 @@
       <c r="G12" t="s">
         <v>127</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>329</v>
       </c>
@@ -5416,7 +5431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -5448,7 +5463,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2.1</v>
       </c>
@@ -5480,7 +5495,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -5512,7 +5527,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -5544,7 +5559,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2.4</v>
       </c>
@@ -5576,7 +5591,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2.5</v>
       </c>
@@ -5608,7 +5623,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2.6</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>141</v>
       </c>
@@ -5667,6 +5682,9 @@
       <c r="G20" t="s">
         <v>142</v>
       </c>
+      <c r="H20" t="s">
+        <v>333</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>329</v>
       </c>
@@ -5674,7 +5692,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>144</v>
       </c>
@@ -5699,6 +5717,9 @@
       <c r="G21" t="s">
         <v>145</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>329</v>
       </c>
@@ -5706,7 +5727,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>146</v>
       </c>
@@ -5731,6 +5752,9 @@
       <c r="G22" t="s">
         <v>147</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>329</v>
       </c>
@@ -5738,7 +5762,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>149</v>
       </c>
@@ -5763,6 +5787,9 @@
       <c r="G23" t="s">
         <v>150</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>329</v>
       </c>
@@ -5770,7 +5797,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>152</v>
       </c>
@@ -5795,6 +5822,9 @@
       <c r="G24" t="s">
         <v>153</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>329</v>
       </c>
@@ -5802,7 +5832,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>155</v>
       </c>
@@ -5827,6 +5857,9 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J25" s="1" t="s">
         <v>329</v>
       </c>
@@ -5834,7 +5867,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>158</v>
       </c>
@@ -5859,6 +5892,9 @@
       <c r="G26" t="s">
         <v>159</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>329</v>
       </c>
@@ -5866,7 +5902,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>161</v>
       </c>
@@ -5891,6 +5927,9 @@
       <c r="G27" t="s">
         <v>162</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>329</v>
       </c>
@@ -5898,7 +5937,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>164</v>
       </c>
@@ -5923,6 +5962,9 @@
       <c r="G28" t="s">
         <v>165</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J28" s="1" t="s">
         <v>329</v>
       </c>
@@ -5930,7 +5972,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -5962,7 +6004,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>3.1</v>
       </c>
@@ -5994,7 +6036,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>3.2</v>
       </c>
@@ -6026,7 +6068,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>3.3</v>
       </c>
@@ -6058,7 +6100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>3.4</v>
       </c>
@@ -6090,7 +6132,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>3.5</v>
       </c>
@@ -6122,7 +6164,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>3.6</v>
       </c>
@@ -6156,7 +6198,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>180</v>
       </c>
@@ -6181,6 +6223,9 @@
       <c r="G36" t="s">
         <v>181</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J36" s="1" t="s">
         <v>329</v>
       </c>
@@ -6188,7 +6233,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>183</v>
       </c>
@@ -6213,6 +6258,9 @@
       <c r="G37" t="s">
         <v>184</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J37" s="1" t="s">
         <v>329</v>
       </c>
@@ -6220,7 +6268,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>186</v>
       </c>
@@ -6245,6 +6293,9 @@
       <c r="G38" t="s">
         <v>187</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J38" s="1" t="s">
         <v>329</v>
       </c>
@@ -6252,7 +6303,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>189</v>
       </c>
@@ -6277,6 +6328,9 @@
       <c r="G39" t="s">
         <v>190</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="J39" s="1" t="s">
         <v>329</v>
       </c>
@@ -6284,7 +6338,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -6295,7 +6349,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -6306,7 +6360,7 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -6317,7 +6371,7 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -6328,7 +6382,7 @@
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -6339,7 +6393,7 @@
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -6350,7 +6404,7 @@
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -6361,7 +6415,7 @@
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
@@ -6372,7 +6426,7 @@
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -6383,7 +6437,7 @@
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -6394,7 +6448,7 @@
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -6405,7 +6459,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -6416,7 +6470,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -6427,7 +6481,7 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="24"/>
@@ -6438,7 +6492,7 @@
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -6449,7 +6503,7 @@
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -6460,7 +6514,7 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -6471,7 +6525,7 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -6482,7 +6536,7 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -6493,7 +6547,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -6504,7 +6558,7 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -6515,7 +6569,7 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -6526,7 +6580,7 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -6537,7 +6591,7 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -6548,7 +6602,7 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -6559,7 +6613,7 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -6570,7 +6624,7 @@
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -6581,7 +6635,7 @@
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -6592,7 +6646,7 @@
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -6603,7 +6657,7 @@
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -6614,7 +6668,7 @@
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -6625,7 +6679,7 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -6636,7 +6690,7 @@
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -6647,7 +6701,7 @@
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -6658,7 +6712,7 @@
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -6669,7 +6723,7 @@
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="24"/>
@@ -6680,7 +6734,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -6691,7 +6745,7 @@
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -6702,7 +6756,7 @@
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -6713,7 +6767,7 @@
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -6724,7 +6778,7 @@
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -6735,7 +6789,7 @@
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -6746,7 +6800,7 @@
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -6757,7 +6811,7 @@
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -6768,7 +6822,7 @@
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -6779,7 +6833,7 @@
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -6790,7 +6844,7 @@
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -6801,7 +6855,7 @@
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -6812,7 +6866,7 @@
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -6823,7 +6877,7 @@
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -6834,7 +6888,7 @@
       <c r="H90" s="23"/>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -6845,7 +6899,7 @@
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -6856,7 +6910,7 @@
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -6867,7 +6921,7 @@
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -6878,7 +6932,7 @@
       <c r="H94" s="23"/>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -6889,7 +6943,7 @@
       <c r="H95" s="23"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -6900,7 +6954,7 @@
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -6911,7 +6965,7 @@
       <c r="H97" s="23"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -6922,7 +6976,7 @@
       <c r="H98" s="23"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -6933,7 +6987,7 @@
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -6944,7 +6998,7 @@
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -6955,7 +7009,7 @@
       <c r="H101" s="23"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -6966,7 +7020,7 @@
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -6977,7 +7031,7 @@
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -6988,7 +7042,7 @@
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -6999,7 +7053,7 @@
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -7010,7 +7064,7 @@
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -7021,7 +7075,7 @@
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -7032,7 +7086,7 @@
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -7043,7 +7097,7 @@
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -7054,7 +7108,7 @@
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -7065,7 +7119,7 @@
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -7076,7 +7130,7 @@
       <c r="H112" s="23"/>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -7087,7 +7141,7 @@
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -7098,7 +7152,7 @@
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -7109,7 +7163,7 @@
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -7120,7 +7174,7 @@
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -7131,7 +7185,7 @@
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -7142,205 +7196,205 @@
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="str">
         <f t="shared" ref="D119:D152" si="3">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D122" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D123" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D124" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D126" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D128" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7360,16 +7414,16 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7404,7 +7458,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -7433,7 +7487,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>193</v>
       </c>
@@ -7465,7 +7519,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>196</v>
       </c>
@@ -7494,7 +7548,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>198</v>
       </c>
@@ -7528,7 +7582,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>201</v>
       </c>
@@ -7560,7 +7614,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>204</v>
       </c>
@@ -7592,7 +7646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>207</v>
       </c>
@@ -7624,7 +7678,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>210</v>
       </c>
@@ -7658,7 +7712,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>213</v>
       </c>
@@ -7690,7 +7744,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>215</v>
       </c>
@@ -7722,7 +7776,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -7754,7 +7808,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>220</v>
       </c>
@@ -7786,7 +7840,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>223</v>
       </c>
@@ -7818,7 +7872,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>226</v>
       </c>
@@ -7850,7 +7904,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>229</v>
       </c>
@@ -7879,7 +7933,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>231</v>
       </c>
@@ -7908,7 +7962,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>233</v>
       </c>
@@ -7940,7 +7994,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>236</v>
       </c>
@@ -7972,7 +8026,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
@@ -8004,7 +8058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>242</v>
       </c>
@@ -8036,7 +8090,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>245</v>
       </c>
@@ -8065,7 +8119,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>247</v>
       </c>
@@ -8094,7 +8148,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
@@ -8126,7 +8180,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>250</v>
       </c>
@@ -8158,7 +8212,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
@@ -8190,7 +8244,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>254</v>
       </c>
@@ -8219,7 +8273,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>256</v>
       </c>
@@ -8251,7 +8305,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>258</v>
       </c>
@@ -8283,7 +8337,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>261</v>
       </c>
@@ -8312,7 +8366,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>263</v>
       </c>
@@ -8344,7 +8398,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>265</v>
       </c>
@@ -8376,7 +8430,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -8389,7 +8443,7 @@
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -8402,7 +8456,7 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -8415,7 +8469,7 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -8428,7 +8482,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -8441,7 +8495,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -8454,7 +8508,7 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -8467,7 +8521,7 @@
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -8480,7 +8534,7 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -8493,7 +8547,7 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -8506,7 +8560,7 @@
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -8519,7 +8573,7 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -8532,7 +8586,7 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -8545,7 +8599,7 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8558,7 +8612,7 @@
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8571,7 +8625,7 @@
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8584,7 +8638,7 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -8597,7 +8651,7 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -8610,7 +8664,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -8623,7 +8677,7 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -8636,7 +8690,7 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -8649,7 +8703,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -8662,7 +8716,7 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8675,7 +8729,7 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8688,7 +8742,7 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -8701,7 +8755,7 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -8714,7 +8768,7 @@
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -8727,7 +8781,7 @@
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -8740,7 +8794,7 @@
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="24"/>
@@ -8753,7 +8807,7 @@
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -8766,7 +8820,7 @@
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -8779,7 +8833,7 @@
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -8792,7 +8846,7 @@
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -8805,7 +8859,7 @@
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -8832,14 +8886,14 @@
       <selection activeCell="K2" sqref="K2:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8874,7 +8928,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8906,7 +8960,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -8938,7 +8992,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -8970,7 +9024,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -9002,7 +9056,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -9034,7 +9088,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -9066,7 +9120,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -9095,7 +9149,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1.7</v>
       </c>
@@ -9127,7 +9181,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.8</v>
       </c>
@@ -9159,7 +9213,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1.9</v>
       </c>
@@ -9191,7 +9245,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>231</v>
       </c>
@@ -9223,7 +9277,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>233</v>
       </c>
@@ -9255,7 +9309,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>236</v>
       </c>
@@ -9287,7 +9341,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>239</v>
       </c>
@@ -9319,7 +9373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>242</v>
       </c>
@@ -9351,7 +9405,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>245</v>
       </c>
@@ -9383,7 +9437,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>247</v>
       </c>
@@ -9415,7 +9469,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>297</v>
       </c>
@@ -9447,7 +9501,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2</v>
       </c>
@@ -9479,7 +9533,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2.1</v>
       </c>
@@ -9511,7 +9565,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -9540,7 +9594,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -9572,7 +9626,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2.4</v>
       </c>
@@ -9604,7 +9658,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -9619,7 +9673,7 @@
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -9634,7 +9688,7 @@
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="23"/>
@@ -9649,7 +9703,7 @@
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="23"/>
@@ -9664,7 +9718,7 @@
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="23"/>
@@ -9679,7 +9733,7 @@
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="23"/>
@@ -9694,7 +9748,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="23"/>
@@ -9709,7 +9763,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="26"/>
       <c r="C34" s="23"/>
@@ -9724,7 +9778,7 @@
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="26"/>
       <c r="C35" s="23"/>
@@ -9739,7 +9793,7 @@
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="26"/>
       <c r="C36" s="23"/>
@@ -9754,7 +9808,7 @@
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="26"/>
       <c r="C37" s="23"/>
@@ -9769,7 +9823,7 @@
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="26"/>
       <c r="C38" s="23"/>
@@ -9784,7 +9838,7 @@
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="26"/>
       <c r="C39" s="23"/>
@@ -9799,7 +9853,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="26"/>
       <c r="C40" s="23"/>
@@ -9814,7 +9868,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="26"/>
       <c r="C41" s="23"/>
@@ -9829,7 +9883,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="26"/>
       <c r="C42" s="23"/>
@@ -9844,7 +9898,7 @@
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="26"/>
       <c r="C43" s="23"/>
@@ -9859,7 +9913,7 @@
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="26"/>
       <c r="C44" s="23"/>
@@ -9874,7 +9928,7 @@
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="26"/>
       <c r="C45" s="23"/>
@@ -9889,7 +9943,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="26"/>
       <c r="C46" s="24"/>
@@ -9904,7 +9958,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="26"/>
       <c r="C47" s="23"/>
@@ -9919,7 +9973,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="26"/>
       <c r="C48" s="23"/>
@@ -9934,7 +9988,7 @@
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="26"/>
       <c r="C49" s="23"/>
@@ -9949,7 +10003,7 @@
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="26"/>
       <c r="C50" s="23"/>
@@ -9964,7 +10018,7 @@
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -9993,12 +10047,12 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10033,7 +10087,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10062,7 +10116,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>193</v>
       </c>
@@ -10094,7 +10148,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -10126,7 +10180,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -10155,7 +10209,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -10167,7 +10221,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -10179,7 +10233,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -10191,7 +10245,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="23"/>
@@ -10203,7 +10257,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="23"/>
@@ -10215,7 +10269,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="23"/>
@@ -10227,7 +10281,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="23"/>
@@ -10239,7 +10293,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -10264,13 +10318,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10305,7 +10359,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10334,7 +10388,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -10366,7 +10420,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -10398,7 +10452,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -10430,7 +10484,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2.1</v>
       </c>
@@ -10459,7 +10513,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -10472,7 +10526,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
@@ -10485,7 +10539,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -10498,7 +10552,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -10511,7 +10565,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
@@ -10524,7 +10578,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -10537,7 +10591,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -10550,7 +10604,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -10563,7 +10617,7 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>

--- a/Wi-UI.xlsx
+++ b/Wi-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="335">
   <si>
     <t>Code</t>
   </si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>icon-left</t>
+  </si>
+  <si>
+    <t>Curve Comparison</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5019,14 +5022,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
@@ -7410,13 +7413,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
@@ -8032,7 +8036,7 @@
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CurveComrarisonButton</v>
+        <v>CurveComparisonButton</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -8049,7 +8053,7 @@
         <v>curve-compare-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>329</v>
